--- a/data/trans_dic/P1422-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1422-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0147690040346674</v>
+        <v>0.0141561219754519</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005738056838017466</v>
+        <v>0.005877406222844004</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01678894380008943</v>
+        <v>0.01606528533043669</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007795517435198982</v>
+        <v>0.007823228034485681</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.005304157401035052</v>
+        <v>0.005484981772033506</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01885070419418922</v>
+        <v>0.01860790438770142</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0117338858671665</v>
+        <v>0.01257738336877289</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.007097414784441139</v>
+        <v>0.007031045590284143</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0205576253875745</v>
+        <v>0.0209054568415191</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03602652986379633</v>
+        <v>0.03536907311544599</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02015918828976981</v>
+        <v>0.01988066935606493</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03897420352989159</v>
+        <v>0.03757128447763845</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02104357660601296</v>
+        <v>0.02061807371310545</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01950533536703872</v>
+        <v>0.01977925834250919</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03691736457138656</v>
+        <v>0.03638249969926342</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02477722594344759</v>
+        <v>0.02416909754817407</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01732392036800437</v>
+        <v>0.01686306144944764</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03453581727767833</v>
+        <v>0.03513485469239891</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.00323931213440052</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.006527961279984793</v>
+        <v>0.006527961279984792</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.004654280667512343</v>
@@ -773,7 +773,7 @@
         <v>0.003545571665409422</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.008930061817297602</v>
+        <v>0.008930061817297604</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00304527227638376</v>
+        <v>0.00298151237980423</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001757608424746533</v>
+        <v>0.001582379950369132</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007580707130679515</v>
+        <v>0.007774688237036669</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.001730182602524388</v>
+        <v>0.00169780372995363</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001548781425027216</v>
+        <v>0.001553470357077949</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.003973410012967608</v>
+        <v>0.004132869411168911</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002721614285388827</v>
+        <v>0.002896520548318853</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002023572349035243</v>
+        <v>0.001996514657956335</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.006547882831950047</v>
+        <v>0.006755603118908883</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.009589648726959936</v>
+        <v>0.009160697751315597</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.007723987346698442</v>
+        <v>0.007899452249262235</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01614456723737398</v>
+        <v>0.01628894517956977</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.007807286317618265</v>
+        <v>0.008322002598105218</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.006530071083722378</v>
+        <v>0.007150403199116746</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.009725778487848252</v>
+        <v>0.009722684339138948</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.007274865749079418</v>
+        <v>0.007437830889389498</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.005811508854388305</v>
+        <v>0.00576562400447963</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01157083428438561</v>
+        <v>0.01200526704355333</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.008991498503270785</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.006517612759508756</v>
+        <v>0.006517612759508755</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.002397495966815067</v>
@@ -873,7 +873,7 @@
         <v>0.006035569552978595</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.003296004410565193</v>
+        <v>0.003296004410565192</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.001169984601454557</v>
@@ -894,10 +894,10 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.003500343777768012</v>
+        <v>0.003347820689318595</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002188973404971454</v>
+        <v>0.002180161445354451</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0008858308479759293</v>
+        <v>0.0008607962370813234</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002899538765152415</v>
+        <v>0.00359788249302799</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002278468099368376</v>
+        <v>0.002002654458060425</v>
       </c>
     </row>
     <row r="12">
@@ -927,28 +927,28 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02027384638719657</v>
+        <v>0.01910371960750781</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01703168887124764</v>
+        <v>0.01526642185326125</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0185670838678027</v>
+        <v>0.01213714456585651</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02381899587848924</v>
+        <v>0.02439740140511311</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.008398953973768941</v>
+        <v>0.007891342890652442</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.005899820270937157</v>
+        <v>0.007042203393537241</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01592472954838702</v>
+        <v>0.01555396972208292</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.009895735774522936</v>
+        <v>0.009356543303141356</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006579606334872928</v>
+        <v>0.006787868831001628</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004116588805582103</v>
+        <v>0.003987119774507057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009792545316639754</v>
+        <v>0.009544143755337939</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004807257162590602</v>
+        <v>0.004713365278004654</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.003430353361930076</v>
+        <v>0.003372584818609762</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.008053881453528295</v>
+        <v>0.008102971193119191</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.006594130646756931</v>
+        <v>0.006334201771146755</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.004308301697493027</v>
+        <v>0.004364256075232949</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.009531529684950092</v>
+        <v>0.009673904519191045</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01410504429923396</v>
+        <v>0.01399544227992103</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009584881837597122</v>
+        <v>0.009520966218429178</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01700573534877073</v>
+        <v>0.01644194377418954</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01048721457772409</v>
+        <v>0.01040743533187197</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.00900067236814993</v>
+        <v>0.009509688646858038</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01332240289609204</v>
+        <v>0.0133565273383029</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01113402130914766</v>
+        <v>0.01086416865618159</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.008414992950975315</v>
+        <v>0.008241885826640179</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01392130308279358</v>
+        <v>0.01360330608747645</v>
       </c>
     </row>
     <row r="16">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14395</v>
+        <v>13797</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4328</v>
+        <v>4434</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9696</v>
+        <v>9278</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10429</v>
+        <v>10466</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5276</v>
+        <v>5456</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15469</v>
+        <v>15270</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27134</v>
+        <v>29084</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>12413</v>
+        <v>12297</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>28743</v>
+        <v>29229</v>
       </c>
     </row>
     <row r="7">
@@ -1320,31 +1320,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>35113</v>
+        <v>34472</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15207</v>
+        <v>14997</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22509</v>
+        <v>21699</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>28152</v>
+        <v>27583</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19401</v>
+        <v>19674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>30295</v>
+        <v>29856</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>57296</v>
+        <v>55890</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>30300</v>
+        <v>29494</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>48286</v>
+        <v>49124</v>
       </c>
     </row>
     <row r="8">
@@ -1429,31 +1429,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5981</v>
+        <v>5856</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3649</v>
+        <v>3286</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16889</v>
+        <v>17321</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3036</v>
+        <v>2979</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3079</v>
+        <v>3089</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8620</v>
+        <v>8966</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10120</v>
+        <v>10771</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8225</v>
+        <v>8115</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>28793</v>
+        <v>29706</v>
       </c>
     </row>
     <row r="11">
@@ -1464,31 +1464,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18834</v>
+        <v>17991</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16038</v>
+        <v>16402</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35968</v>
+        <v>36289</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13699</v>
+        <v>14602</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12984</v>
+        <v>14217</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21099</v>
+        <v>21092</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27052</v>
+        <v>27658</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23622</v>
+        <v>23435</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>50880</v>
+        <v>52790</v>
       </c>
     </row>
     <row r="12">
@@ -1574,10 +1574,10 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>1914</v>
+        <v>1831</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
@@ -1586,16 +1586,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3178</v>
+        <v>3943</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3294</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="15">
@@ -1607,28 +1607,28 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>11087</v>
+        <v>10448</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12120</v>
+        <v>10863</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8515</v>
+        <v>5566</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13080</v>
+        <v>13398</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6166</v>
+        <v>5794</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5545</v>
+        <v>6618</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17454</v>
+        <v>17048</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14307</v>
+        <v>13528</v>
       </c>
     </row>
     <row r="16">
@@ -1713,31 +1713,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22501</v>
+        <v>23213</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13904</v>
+        <v>13467</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>34440</v>
+        <v>33567</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17071</v>
+        <v>16737</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12116</v>
+        <v>11912</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29994</v>
+        <v>30177</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>45966</v>
+        <v>44154</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>29769</v>
+        <v>30156</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>69019</v>
+        <v>70050</v>
       </c>
     </row>
     <row r="19">
@@ -1748,31 +1748,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>48236</v>
+        <v>47861</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>32374</v>
+        <v>32158</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>59809</v>
+        <v>57826</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>37240</v>
+        <v>36957</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31791</v>
+        <v>33589</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>49615</v>
+        <v>49742</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>77613</v>
+        <v>75732</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>58145</v>
+        <v>56949</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>100806</v>
+        <v>98504</v>
       </c>
     </row>
     <row r="20">
